--- a/Predicted Freeze-Thaw Cycles (2022-2023).xlsx
+++ b/Predicted Freeze-Thaw Cycles (2022-2023).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bahaa\Desktop\Predicted Freeze-Thaw Cycles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFC24EC-8AC2-4F6A-A036-5680AEF06657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB591930-F203-4C4A-85F3-E8A8E5C98333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="598">
   <si>
     <t>Latitude</t>
   </si>
@@ -1827,6 +1827,9 @@
   </si>
   <si>
     <t>County</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -2474,7 +2477,7 @@
   <dimension ref="A1:G592"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2490,21 +2493,24 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>596</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>194</v>
       </c>
     </row>
